--- a/Excel Format/LibroP.xlsx
+++ b/Excel Format/LibroP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unidad 1 POO Exepciones\aperturaylecturadearchivos-marioupv\Excel Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516383AF-8DF9-4370-BD15-C50F4AB46228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F9E5C4-D1F7-4027-BAC8-64409BAA9E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13800" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{6B709F1D-814E-4C6F-94AD-97CA69790E56}"/>
+    <workbookView xWindow="0" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{6B709F1D-814E-4C6F-94AD-97CA69790E56}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Nombre</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Completo</t>
-  </si>
-  <si>
-    <t>Hola</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,9 +554,6 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
